--- a/TAP_POM_Framework/data/TC0005.xlsx
+++ b/TAP_POM_Framework/data/TC0005.xlsx
@@ -42,9 +42,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>Thales</t>
-  </si>
-  <si>
     <t>https://www.thales.com</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>priya</t>
   </si>
   <si>
-    <t>anu@ltts.com</t>
-  </si>
-  <si>
     <t>Abirami@1</t>
   </si>
   <si>
@@ -64,6 +58,12 @@
   </si>
   <si>
     <t>reenterpassword</t>
+  </si>
+  <si>
+    <t>Thaless</t>
+  </si>
+  <si>
+    <t>anu@thales.com</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,33 +430,33 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>8597413269</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
